--- a/Desktop/GitTrial/Git_trial/public_html/evidencias/Plantilla estilos de aprendizaje.xlsx
+++ b/Desktop/GitTrial/Git_trial/public_html/evidencias/Plantilla estilos de aprendizaje.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\GitTrial\Git_trial\public_html\evidencias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Descripción Estilos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="InstumentoEvaluación" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Informe de compatibilidad" sheetId="3" r:id="rId6"/>
+    <sheet name="Descripción Estilos" sheetId="1" r:id="rId1"/>
+    <sheet name="InstumentoEvaluación" sheetId="2" r:id="rId2"/>
+    <sheet name="Informe de compatibilidad" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjl6+ndSTCZNfo/7yI6GuUxW3sYQg=="/>
@@ -18,14 +26,97 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H60">
+    <comment ref="H51" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAADl3U8MQ
+Autor    (2019-10-18 23:55:04)
+Características del Aprendiz Asimilador
+Reflexivo, razona lo aprendido.
+Analítico, organizado, metódico y sistemático.
+Estudioso, se concentra en el aprender.
+Racional, lógico, riguroso en el razonamiento.
+Secuencial, tiende al razonamiento deductivo.
+Le agrada trabajar de manera individual
+Pensador abstracto, planificador
+Investigador, capacidad de síntesis
+Genera modelos, disfruta la teoría y el diseño
+Poco empático, hermético, poco sensible</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAADl3U8MM
+Autor    (2019-10-18 23:55:04)
+Características del Aprendiz Convergente
+Pragmático, racional, analítico, organizado
+Transfiere lo aprendido. 
+Se involucra en experiencias nuevas. 
+Entra fácilmente en materia. 
+Va a la solución de problemas. 
+Es eficiente en la aplicación de la teoría.
+Buen discriminador, orientado a la tarea
+Disfruta aspectos técnicos 
+Gusta de la experimentación 
+Poco empático, hermético, poco sensible
+Poco imaginativo, deductivo, líder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAADl3U8MI
+Autor    (2019-10-18 23:55:04)
+Características del Aprendiz Divergente
+Kinestésico, aprende con el movimiento.
+Experimental, reproduce lo aprendido.
+Flexible, se acomoda hasta lograr aprender
+Creativo, tiene propuestas originales. 
+Informal, rompe las normas tradicionales.
+Capacidad de síntesis 
+Genera ideas, soñador, espontáneo 
+Empático, abierto, emocional, intuitivo
+Flexible, valora la comprensión 
+Disfruta el descubrimiento 
+Orientado a las personas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
 ID#AAAADl3U8MU
 Autor    (2019-10-18 23:55:04)
 Características del Aprendiz Acomodador
@@ -40,67 +131,12 @@
 Busca objetivos, flexible, comprometido
 Dependiente de los demás
 Poca habilidad analítica</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H51">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAADl3U8MQ
-Autor    (2019-10-18 23:55:04)
-Características del Aprendiz Asimilador
-Reflexivo, razona lo aprendido.
-Analítico, organizado, metódico y sistemático.
-Estudioso, se concentra en el aprender.
-Racional, lógico, riguroso en el razonamiento.
-Secuencial, tiende al razonamiento deductivo.
-Le agrada trabajar de manera individual
-Pensador abstracto, planificador
-Investigador, capacidad de síntesis
-Genera modelos, disfruta la teoría y el diseño
-Poco empático, hermético, poco sensible</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H54">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAADl3U8MM
-Autor    (2019-10-18 23:55:04)
-Características del Aprendiz Convergente
-Pragmático, racional, analítico, organizado
-Transfiere lo aprendido. 
-Se involucra en experiencias nuevas. 
-Entra fácilmente en materia. 
-Va a la solución de problemas. 
-Es eficiente en la aplicación de la teoría.
-Buen discriminador, orientado a la tarea
-Disfruta aspectos técnicos 
-Gusta de la experimentación 
-Poco empático, hermético, poco sensible
-Poco imaginativo, deductivo, líder</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H57">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAADl3U8MI
-Autor    (2019-10-18 23:55:04)
-Características del Aprendiz Divergente
-Kinestésico, aprende con el movimiento.
-Experimental, reproduce lo aprendido.
-Flexible, se acomoda hasta lograr aprender
-Creativo, tiene propuestas originales. 
-Informal, rompe las normas tradicionales.
-Capacidad de síntesis 
-Genera ideas, soñador, espontáneo 
-Empático, abierto, emocional, intuitivo
-Flexible, valora la comprensión 
-Disfruta el descubrimiento 
-Orientado a las personas</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgsXv1iIQF6rowiDxesmMQ4BWFcJA=="/>
     </ext>
   </extLst>
@@ -235,10 +271,10 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="7.0"/>
       </rPr>
       <t> </t>
     </r>
@@ -348,17 +384,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Actividades manuales.</t>
     </r>
@@ -420,18 +456,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="14.0"/>
       </rPr>
       <t>INSTRUCCIÓN</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="14.0"/>
       </rPr>
       <t>: Debe completar los cuatro casilleros en cada fila sin repetir los números. Se incluye la valoración de manera  horizontal.</t>
     </r>
@@ -723,239 +759,259 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm -yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\ \-yyyy"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="45">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF5F497A"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFE36C09"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1F497D"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -963,7 +1019,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1027,41 +1083,60 @@
     </fill>
   </fills>
   <borders count="27">
-    <border/>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1071,61 +1146,85 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1135,6 +1234,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1149,27 +1249,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1179,17 +1286,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1201,6 +1311,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1212,6 +1324,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1220,9 +1334,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1231,362 +1347,359 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="6" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="6" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="8" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="7" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="10" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="9" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="11" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="11" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="112">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="9525">
+            <a:ln w="9525" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1597,16 +1710,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'InstumentoEvaluación'!$K$48:$N$48</c:f>
+              <c:f>InstumentoEvaluación!$K$48:$N$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>EXPERIENCIA CONCRETA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OBSERVACIÓN REFLEXIVA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CONCEPTUALIZACIÓN ABSTRACTA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EXPERIMEN TACIÓN ACTIVA</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'InstumentoEvaluación'!$K$49:$N$49</c:f>
+              <c:f>InstumentoEvaluación!$K$49:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E963-4BA0-B389-8CD5FC79EE50}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="527568280"/>
         <c:axId val="1508585344"/>
       </c:radarChart>
@@ -1617,7 +1773,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1508585344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1508585344"/>
@@ -1658,15 +1823,16 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1685,9 +1851,12 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527568280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1695,21 +1864,25 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1718,9 +1891,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6391275" cy="5753100"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr descr="Chart 0" id="1851097315" name="Chart 1"/>
+        <xdr:cNvPr id="1851097315" name="Chart 1" descr="Chart 0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1729,7 +1902,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1743,7 +1916,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="352425"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1755,30 +1928,30 @@
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="4F81BD"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="385D8A"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1787,9 +1960,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -1804,7 +1974,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="161925"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
@@ -1816,30 +1986,30 @@
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="4F81BD"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="385D8A"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1848,9 +2018,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -1865,7 +2032,7 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="171450"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
@@ -1877,30 +2044,30 @@
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="4F81BD"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="385D8A"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1909,9 +2076,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -1926,7 +2090,7 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="295275"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
@@ -1945,12 +2109,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1960,7 +2124,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" i="0" lang="en-US" sz="1200" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1985,7 +2149,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="990600" cy="238125"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
         <xdr:cNvSpPr/>
@@ -2004,12 +2168,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2019,7 +2183,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" i="0" lang="en-US" sz="1100" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2044,7 +2208,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="352425"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
@@ -2056,30 +2220,30 @@
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="4F81BD"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="385D8A"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2088,9 +2252,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -2100,12 +2261,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2295,1050 +2452,1446 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="20.14"/>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="26" width="10.0"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A5" s="75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1"/>
-    <row r="7" ht="25.5" customHeight="1"/>
-    <row r="8" ht="25.5" customHeight="1"/>
-    <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1"/>
-    <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="25" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="28" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5">
+      <c r="A20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="28" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A27" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="28" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A28" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A29" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A30" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A36" s="75" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" s="75" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="25" t="s">
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="33" t="s">
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="33" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="33" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A47" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="33" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="33" t="s">
+      <c r="F47" s="27"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A48" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="33" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="33" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="33" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="33" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="33" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="33" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="33" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="33" t="s">
+      <c r="F51" s="27"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="33" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="33" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="44" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="10" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="79"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" ht="84.75" customHeight="1">
-      <c r="A61" s="46" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="84.75" customHeight="1">
+      <c r="A61" s="74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="17" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A66" s="75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="25" t="s">
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="25" t="s">
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-    </row>
-    <row r="72" ht="18.0" customHeight="1">
-      <c r="A72" s="33" t="s">
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1">
+      <c r="A72" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="50" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="33" t="s">
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="33" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="33" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A74" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="33" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="33" t="s">
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="33" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" ht="18.0" customHeight="1">
-      <c r="A76" s="33" t="s">
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1">
+      <c r="A76" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="52" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="33" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A77" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="33" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="33" t="s">
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A78" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="33" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="33" t="s">
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A79" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="33" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="33" t="s">
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="33" t="s">
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="55" t="s">
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="10" t="s">
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="79"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" ht="74.25" customHeight="1">
-      <c r="A88" s="46" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" ht="74.25" customHeight="1">
+      <c r="A88" s="74" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="17" t="s">
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="75" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="17" t="s">
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="25" t="s">
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="73"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="73"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="25" t="s">
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-    </row>
-    <row r="99" ht="21.0" customHeight="1">
-      <c r="A99" s="33" t="s">
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:9" ht="21" customHeight="1">
+      <c r="A99" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="33" t="s">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-    </row>
-    <row r="100" ht="27.75" customHeight="1">
-      <c r="A100" s="62" t="s">
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A100" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="33" t="s">
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="33" t="s">
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="33" t="s">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="33" t="s">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="33" t="s">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="33" t="s">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="33" t="s">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-    </row>
-    <row r="104" ht="27.75" customHeight="1">
-      <c r="A104" s="62" t="s">
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A104" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="33" t="s">
+      <c r="B104" s="73"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="33" t="s">
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="33" t="s">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="33" t="s">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="33" t="s">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="33" t="s">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="33" t="s">
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="33" t="s">
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="33"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="70" t="s">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" s="27"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A113" s="42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="74" t="s">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A114" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -4213,20 +4766,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A88:I88"/>
-    <mergeCell ref="A89:I92"/>
-    <mergeCell ref="A93:I96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A62:I65"/>
-    <mergeCell ref="A66:I69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E18:I18"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="A9:I12"/>
@@ -4237,951 +4778,1029 @@
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A36:I39"/>
     <mergeCell ref="A40:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:I65"/>
+    <mergeCell ref="A66:I69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="A89:I92"/>
+    <mergeCell ref="A93:I96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="E97:I97"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A114"/>
+    <hyperlink ref="A114" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="2.86"/>
-    <col customWidth="1" min="3" max="3" width="5.71"/>
-    <col customWidth="1" min="4" max="4" width="25.14"/>
-    <col customWidth="1" min="5" max="5" width="5.71"/>
-    <col customWidth="1" min="6" max="6" width="26.86"/>
-    <col customWidth="1" min="7" max="7" width="5.71"/>
-    <col customWidth="1" min="8" max="8" width="29.0"/>
-    <col customWidth="1" min="9" max="9" width="5.71"/>
-    <col customWidth="1" min="10" max="10" width="26.0"/>
-    <col customWidth="1" min="11" max="11" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="22.71"/>
-    <col customWidth="1" min="13" max="13" width="28.43"/>
-    <col customWidth="1" min="14" max="14" width="23.29"/>
-    <col customWidth="1" min="15" max="26" width="10.0"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1"/>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:10" ht="22.5" customHeight="1"/>
+    <row r="2" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B2" s="109" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B4" s="29"/>
+      <c r="C4" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39">
-        <v>1.014189215E9</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="107">
+        <v>1014189215</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="37" t="s">
+      <c r="H4" s="93"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="43">
-        <v>43756.0</v>
-      </c>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="40" t="s">
+      <c r="H5" s="93"/>
+      <c r="I5" s="108">
+        <v>43756</v>
+      </c>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39">
-        <v>31.0</v>
-      </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" ht="36.75" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="H6" s="93"/>
+      <c r="I6" s="107">
+        <v>31</v>
+      </c>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B8" s="106" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" ht="39.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="D10" s="49" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="2:10" ht="39.75" customHeight="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32">
+        <v>4</v>
+      </c>
+      <c r="D10" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" ht="34.5" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="49" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10" ht="34.5" customHeight="1">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32">
+        <v>3</v>
+      </c>
+      <c r="D11" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" ht="36.75" customHeight="1">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" ht="34.5" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="49" t="s">
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" ht="34.5" customHeight="1">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" ht="34.5" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" ht="34.5" customHeight="1">
-      <c r="B15" s="54" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" ht="34.5" customHeight="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" ht="34.5" customHeight="1">
+      <c r="B15" s="105" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" ht="39.75" customHeight="1">
-      <c r="B16" s="56" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" spans="2:10" ht="39.75" customHeight="1">
+      <c r="B16" s="103" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" ht="84.0" customHeight="1">
-      <c r="B17" s="56" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+    </row>
+    <row r="17" spans="2:16" ht="84" customHeight="1">
+      <c r="B17" s="103" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="B19" s="45" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B19" s="106" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1"/>
-    <row r="23" ht="45.0" customHeight="1">
-      <c r="C23" s="60" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+    </row>
+    <row r="20" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+    </row>
+    <row r="21" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="2:16" ht="22.5" customHeight="1"/>
+    <row r="23" spans="2:16" ht="45" customHeight="1">
+      <c r="C23" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="63" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="63" t="s">
+      <c r="F23" s="89"/>
+      <c r="G23" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="63" t="s">
+      <c r="H23" s="89"/>
+      <c r="I23" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65" t="s">
+      <c r="J23" s="89"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="66"/>
-    </row>
-    <row r="24" ht="45.0" customHeight="1">
-      <c r="B24" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="69" t="s">
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="2:16" ht="45" customHeight="1">
+      <c r="B24" s="94">
+        <v>1</v>
+      </c>
+      <c r="C24" s="84">
+        <v>4</v>
+      </c>
+      <c r="D24" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="F24" s="69" t="s">
+      <c r="E24" s="84">
+        <v>3</v>
+      </c>
+      <c r="F24" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="H24" s="69" t="s">
+      <c r="G24" s="84">
+        <v>1</v>
+      </c>
+      <c r="H24" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J24" s="69" t="s">
+      <c r="I24" s="84">
+        <v>2</v>
+      </c>
+      <c r="J24" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="71" t="s">
+      <c r="K24" s="39"/>
+      <c r="L24" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="71" t="s">
+      <c r="M24" s="39"/>
+      <c r="N24" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-    </row>
-    <row r="25" ht="114.0" customHeight="1">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="71" t="s">
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="2:16" ht="114" customHeight="1">
+      <c r="B25" s="73"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="71" t="s">
+      <c r="M25" s="39"/>
+      <c r="N25" s="43" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="B26" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="C26" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="69" t="s">
+    <row r="26" spans="2:16" ht="15" customHeight="1">
+      <c r="B26" s="94">
+        <v>2</v>
+      </c>
+      <c r="C26" s="84">
+        <v>2</v>
+      </c>
+      <c r="D26" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="F26" s="69" t="s">
+      <c r="E26" s="84">
+        <v>4</v>
+      </c>
+      <c r="F26" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="H26" s="69" t="s">
+      <c r="G26" s="84">
+        <v>3</v>
+      </c>
+      <c r="H26" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="69" t="s">
+      <c r="I26" s="84">
+        <v>1</v>
+      </c>
+      <c r="J26" s="86" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" ht="112.5" customHeight="1">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="B28" s="67">
-        <v>3.0</v>
-      </c>
-      <c r="C28" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="69" t="s">
+    <row r="27" spans="2:16" ht="112.5" customHeight="1">
+      <c r="B27" s="73"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="87"/>
+    </row>
+    <row r="28" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B28" s="94">
+        <v>3</v>
+      </c>
+      <c r="C28" s="84">
+        <v>1</v>
+      </c>
+      <c r="D28" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="69" t="s">
+      <c r="E28" s="84">
+        <v>2</v>
+      </c>
+      <c r="F28" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="69" t="s">
+      <c r="G28" s="84">
+        <v>4</v>
+      </c>
+      <c r="H28" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="J28" s="69" t="s">
+      <c r="I28" s="84">
+        <v>3</v>
+      </c>
+      <c r="J28" s="86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" ht="106.5" customHeight="1">
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="B30" s="67">
-        <v>4.0</v>
-      </c>
-      <c r="C30" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="69" t="s">
+    <row r="29" spans="2:16" ht="106.5" customHeight="1">
+      <c r="B29" s="73"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="87"/>
+    </row>
+    <row r="30" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B30" s="94">
+        <v>4</v>
+      </c>
+      <c r="C30" s="84">
+        <v>1</v>
+      </c>
+      <c r="D30" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="F30" s="69" t="s">
+      <c r="E30" s="84">
+        <v>4</v>
+      </c>
+      <c r="F30" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="H30" s="69" t="s">
+      <c r="G30" s="84">
+        <v>2</v>
+      </c>
+      <c r="H30" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="J30" s="69" t="s">
+      <c r="I30" s="84">
+        <v>3</v>
+      </c>
+      <c r="J30" s="86" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" ht="155.25" customHeight="1">
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="B32" s="67">
-        <v>5.0</v>
-      </c>
-      <c r="C32" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="69" t="s">
+    <row r="31" spans="2:16" ht="155.25" customHeight="1">
+      <c r="B31" s="73"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="87"/>
+    </row>
+    <row r="32" spans="2:16" ht="22.5" customHeight="1">
+      <c r="B32" s="94">
+        <v>5</v>
+      </c>
+      <c r="C32" s="84">
+        <v>2</v>
+      </c>
+      <c r="D32" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="F32" s="69" t="s">
+      <c r="E32" s="84">
+        <v>4</v>
+      </c>
+      <c r="F32" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="69" t="s">
+      <c r="G32" s="84">
+        <v>1</v>
+      </c>
+      <c r="H32" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="J32" s="69" t="s">
+      <c r="I32" s="84">
+        <v>3</v>
+      </c>
+      <c r="J32" s="86" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" ht="99.75" customHeight="1">
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1">
-      <c r="B34" s="67">
-        <v>6.0</v>
-      </c>
-      <c r="C34" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="69" t="s">
+    <row r="33" spans="1:26" ht="99.75" customHeight="1">
+      <c r="B33" s="73"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="87"/>
+    </row>
+    <row r="34" spans="1:26" ht="22.5" customHeight="1">
+      <c r="B34" s="94">
+        <v>6</v>
+      </c>
+      <c r="C34" s="84">
+        <v>3</v>
+      </c>
+      <c r="D34" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="F34" s="69" t="s">
+      <c r="E34" s="84">
+        <v>4</v>
+      </c>
+      <c r="F34" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="H34" s="69" t="s">
+      <c r="G34" s="84">
+        <v>1</v>
+      </c>
+      <c r="H34" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="I34" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="J34" s="69" t="s">
+      <c r="I34" s="84">
+        <v>2</v>
+      </c>
+      <c r="J34" s="86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" ht="144.0" customHeight="1">
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1">
-      <c r="B36" s="67">
-        <v>7.0</v>
-      </c>
-      <c r="C36" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="69" t="s">
+    <row r="35" spans="1:26" ht="144" customHeight="1">
+      <c r="B35" s="73"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="87"/>
+    </row>
+    <row r="36" spans="1:26" ht="22.5" customHeight="1">
+      <c r="B36" s="94">
+        <v>7</v>
+      </c>
+      <c r="C36" s="84">
+        <v>2</v>
+      </c>
+      <c r="D36" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="F36" s="69" t="s">
+      <c r="E36" s="84">
+        <v>3</v>
+      </c>
+      <c r="F36" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="H36" s="69" t="s">
+      <c r="G36" s="84">
+        <v>4</v>
+      </c>
+      <c r="H36" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J36" s="69" t="s">
+      <c r="I36" s="84">
+        <v>1</v>
+      </c>
+      <c r="J36" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" ht="141.75" customHeight="1">
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1">
-      <c r="B38" s="67">
-        <v>8.0</v>
-      </c>
-      <c r="C38" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="D38" s="69" t="s">
+    <row r="37" spans="1:26" ht="141.75" customHeight="1">
+      <c r="B37" s="73"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="87"/>
+    </row>
+    <row r="38" spans="1:26" ht="22.5" customHeight="1">
+      <c r="B38" s="94">
+        <v>8</v>
+      </c>
+      <c r="C38" s="84">
+        <v>4</v>
+      </c>
+      <c r="D38" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="F38" s="69" t="s">
+      <c r="E38" s="84">
+        <v>3</v>
+      </c>
+      <c r="F38" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="H38" s="69" t="s">
+      <c r="G38" s="84">
+        <v>2</v>
+      </c>
+      <c r="H38" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="I38" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J38" s="69" t="s">
+      <c r="I38" s="84">
+        <v>1</v>
+      </c>
+      <c r="J38" s="86" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" ht="127.5" customHeight="1">
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="73"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1">
-      <c r="B40" s="67">
-        <v>9.0</v>
-      </c>
-      <c r="C40" s="68">
-        <v>3.0</v>
-      </c>
-      <c r="D40" s="69" t="s">
+    <row r="39" spans="1:26" ht="127.5" customHeight="1">
+      <c r="B39" s="73"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="87"/>
+    </row>
+    <row r="40" spans="1:26" ht="22.5" customHeight="1">
+      <c r="B40" s="94">
+        <v>9</v>
+      </c>
+      <c r="C40" s="84">
+        <v>3</v>
+      </c>
+      <c r="D40" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="68">
-        <v>2.0</v>
-      </c>
-      <c r="F40" s="69" t="s">
+      <c r="E40" s="84">
+        <v>2</v>
+      </c>
+      <c r="F40" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="68">
-        <v>4.0</v>
-      </c>
-      <c r="H40" s="69" t="s">
+      <c r="G40" s="84">
+        <v>4</v>
+      </c>
+      <c r="H40" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J40" s="69" t="s">
+      <c r="I40" s="84">
+        <v>1</v>
+      </c>
+      <c r="J40" s="86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" ht="150.75" customHeight="1">
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="1"/>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="75" t="s">
+    <row r="41" spans="1:26" ht="150.75" customHeight="1">
+      <c r="B41" s="73"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="87"/>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1">
+      <c r="A43" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="75">
+      <c r="B43" s="73"/>
+      <c r="C43" s="45">
         <f>+C26+C28+C30+C32+C36+C38</f>
         <v>12</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75">
+      <c r="D43" s="45"/>
+      <c r="E43" s="45">
         <f>+E24+E28+E34+E36+E38+E40</f>
         <v>17</v>
       </c>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75">
+      <c r="F43" s="45"/>
+      <c r="G43" s="45">
         <f>+G26+G28+G30+G32+G38+G40</f>
         <v>16</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75">
+      <c r="H43" s="45"/>
+      <c r="I43" s="45">
         <f>+I24+I28+I34+I36+I38+I40</f>
-        <v>11</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-    </row>
-    <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-    </row>
-    <row r="45" ht="30.0" customHeight="1">
-      <c r="D45" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" ht="15" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="1:26" ht="30" customHeight="1">
+      <c r="D45" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="79" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="80">
+      <c r="H45" s="49">
         <f>G43-C43</f>
         <v>4</v>
       </c>
     </row>
-    <row r="46" ht="30.75" customHeight="1">
-      <c r="D46" s="78" t="s">
+    <row r="46" spans="1:26" ht="30.75" customHeight="1">
+      <c r="D46" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="79" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="80">
+      <c r="H46" s="49">
         <f>+I43-E43</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="47" ht="15.0" customHeight="1"/>
-    <row r="48" ht="28.5" customHeight="1">
-      <c r="J48" s="58"/>
-      <c r="K48" s="81" t="s">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="28.5" customHeight="1">
+      <c r="J48" s="37"/>
+      <c r="K48" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="L48" s="81" t="s">
+      <c r="L48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="81" t="s">
+      <c r="M48" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="50" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" ht="15.0" customHeight="1">
-      <c r="B49" s="82"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="83">
+    <row r="49" spans="2:14" ht="15" customHeight="1">
+      <c r="B49" s="95"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="51">
         <f>C43</f>
         <v>12</v>
       </c>
-      <c r="L49" s="84">
+      <c r="L49" s="52">
         <f>E43</f>
         <v>17</v>
       </c>
-      <c r="M49" s="85">
+      <c r="M49" s="53">
         <f>G43</f>
         <v>16</v>
       </c>
-      <c r="N49" s="86">
+      <c r="N49" s="54">
         <f>I43</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="15.0" customHeight="1">
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="58"/>
-    </row>
-    <row r="51" ht="18.75" customHeight="1">
-      <c r="D51" s="88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15" customHeight="1">
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D51" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="90" t="str">
+      <c r="E51" s="57"/>
+      <c r="F51" s="58" t="str">
         <f>IF(H45&gt;=3,"ASIMILADOR",IF(H45=18,"ASIMILADOR"," "))</f>
         <v>ASIMILADOR</v>
       </c>
-      <c r="G51" s="91"/>
-      <c r="H51" s="92" t="str">
+      <c r="G51" s="59"/>
+      <c r="H51" s="97" t="str">
         <f>IF(F51&lt;&gt;"ASIMILADOR","",IF(F52&lt;&gt;"ASIMILADOR","","ASIMILADOR"))</f>
         <v>ASIMILADOR</v>
       </c>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="58"/>
-    </row>
-    <row r="52" ht="27.0" customHeight="1">
-      <c r="D52" s="94" t="s">
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="2:14" ht="27" customHeight="1">
+      <c r="D52" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90" t="str">
+      <c r="E52" s="57"/>
+      <c r="F52" s="58" t="str">
         <f>IF(H46&lt;=2,"ASIMILADOR",IF(H46=-11,"ASIMILADOR"," "))</f>
         <v>ASIMILADOR</v>
       </c>
-      <c r="G52" s="91"/>
-      <c r="H52" s="95"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1">
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="97"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="D54" s="98" t="s">
+      <c r="G52" s="59"/>
+      <c r="H52" s="98"/>
+    </row>
+    <row r="53" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="63"/>
+    </row>
+    <row r="54" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D54" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="90" t="str">
+      <c r="E54" s="57"/>
+      <c r="F54" s="58" t="str">
         <f>IF(H45&gt;=3,"CONVERGENTE",IF(H45=18,"CONVERGENTE"," "))</f>
         <v>CONVERGENTE</v>
       </c>
-      <c r="G54" s="91"/>
+      <c r="G54" s="59"/>
       <c r="H54" s="99" t="str">
         <f>IF(F54&lt;&gt;"CONVERGENTE","",IF(F55&lt;&gt;"CONVERGENTE","","CONVERGENTE "))</f>
         <v/>
       </c>
     </row>
-    <row r="55" ht="27.0" customHeight="1">
-      <c r="D55" s="100" t="s">
+    <row r="55" spans="2:14" ht="27" customHeight="1">
+      <c r="D55" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="90" t="str">
+      <c r="E55" s="57"/>
+      <c r="F55" s="58" t="str">
         <f>IF(H46&gt;=3,"CONVERGENTE",IF(H46=17,"CONVERGENTE"," "))</f>
-        <v> </v>
-      </c>
-      <c r="G55" s="91"/>
-      <c r="H55" s="95"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1">
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="97"/>
-    </row>
-    <row r="57" ht="18.75" customHeight="1">
-      <c r="D57" s="101" t="s">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G55" s="59"/>
+      <c r="H55" s="98"/>
+    </row>
+    <row r="56" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="63"/>
+    </row>
+    <row r="57" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D57" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="89"/>
-      <c r="F57" s="90" t="str">
-        <f t="shared" ref="F57:F58" si="1">IF(H45&lt;=2,"DIVERGENTE",IF(H45=-12,"DIVERGENTE"," "))</f>
-        <v> </v>
-      </c>
-      <c r="G57" s="91"/>
-      <c r="H57" s="102" t="str">
+      <c r="E57" s="57"/>
+      <c r="F57" s="58" t="str">
+        <f t="shared" ref="F57:F58" si="0">IF(H45&lt;=2,"DIVERGENTE",IF(H45=-12,"DIVERGENTE"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G57" s="59"/>
+      <c r="H57" s="100" t="str">
         <f>IF(F57&lt;&gt;"DIVERGENTE","",IF(F58&lt;&gt;"DIVERGENTE","","DIVERGENTE "))</f>
         <v/>
       </c>
     </row>
-    <row r="58" ht="27.0" customHeight="1">
-      <c r="D58" s="103" t="s">
+    <row r="58" spans="2:14" ht="27" customHeight="1">
+      <c r="D58" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="90" t="str">
-        <f t="shared" si="1"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="58" t="str">
+        <f t="shared" si="0"/>
         <v>DIVERGENTE</v>
       </c>
-      <c r="G58" s="91"/>
-      <c r="H58" s="95"/>
-    </row>
-    <row r="59" ht="18.75" customHeight="1">
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="97"/>
-    </row>
-    <row r="60" ht="97.5" customHeight="1">
-      <c r="D60" s="104" t="s">
+      <c r="G58" s="59"/>
+      <c r="H58" s="98"/>
+    </row>
+    <row r="59" spans="2:14" ht="18.75" customHeight="1">
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="63"/>
+    </row>
+    <row r="60" spans="2:14" ht="97.5" customHeight="1">
+      <c r="D60" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="89"/>
-      <c r="F60" s="90" t="str">
+      <c r="E60" s="57"/>
+      <c r="F60" s="58" t="str">
         <f>IF(H45&lt;=2,"ACOMODADOR",IF(H45=-12,"ACOMODADOR"," "))</f>
-        <v> </v>
-      </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="105" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G60" s="59"/>
+      <c r="H60" s="101" t="str">
         <f>IF(F60&lt;&gt;"ACOMODADOR","",IF(F61&lt;&gt;"ACOMODADOR","","ACOMODADOR"))</f>
         <v/>
       </c>
-      <c r="J60" s="106" t="s">
+      <c r="J60" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" ht="27.0" customHeight="1">
-      <c r="D61" s="107" t="s">
+    <row r="61" spans="2:14" ht="27" customHeight="1">
+      <c r="D61" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="89"/>
-      <c r="F61" s="90" t="str">
+      <c r="E61" s="57"/>
+      <c r="F61" s="58" t="str">
         <f>IF(H46&gt;=3,"ACOMODADOR",IF(H46=17,"ACOMODADOR"," "))</f>
-        <v> </v>
-      </c>
-      <c r="G61" s="91"/>
-      <c r="H61" s="95"/>
-    </row>
-    <row r="62" ht="15.0" customHeight="1"/>
-    <row r="63" ht="22.5" customHeight="1"/>
-    <row r="64" ht="45.0" customHeight="1">
-      <c r="H64" s="106"/>
-    </row>
-    <row r="65" ht="22.5" customHeight="1"/>
-    <row r="66" ht="22.5" customHeight="1"/>
-    <row r="67" ht="22.5" customHeight="1">
-      <c r="H67" s="108"/>
-    </row>
-    <row r="68" ht="22.5" customHeight="1"/>
-    <row r="69" ht="22.5" customHeight="1"/>
-    <row r="70" ht="22.5" customHeight="1"/>
-    <row r="71" ht="22.5" customHeight="1"/>
-    <row r="72" ht="22.5" customHeight="1"/>
-    <row r="73" ht="22.5" customHeight="1"/>
-    <row r="74" ht="22.5" customHeight="1"/>
-    <row r="75" ht="22.5" customHeight="1"/>
-    <row r="76" ht="22.5" customHeight="1"/>
-    <row r="77" ht="22.5" customHeight="1"/>
-    <row r="78" ht="22.5" customHeight="1"/>
-    <row r="79" ht="22.5" customHeight="1"/>
-    <row r="80" ht="22.5" customHeight="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G61" s="59"/>
+      <c r="H61" s="98"/>
+    </row>
+    <row r="63" spans="2:14" ht="22.5" customHeight="1"/>
+    <row r="64" spans="2:14" ht="45" customHeight="1">
+      <c r="H64" s="69"/>
+    </row>
+    <row r="65" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="66" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="67" spans="8:8" ht="22.5" customHeight="1">
+      <c r="H67" s="71"/>
+    </row>
+    <row r="68" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="69" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="70" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="71" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="72" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="73" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="74" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="75" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="76" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="77" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="78" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="79" spans="8:8" ht="22.5" customHeight="1"/>
+    <row r="80" spans="8:8" ht="22.5" customHeight="1"/>
     <row r="81" ht="22.5" customHeight="1"/>
     <row r="82" ht="22.5" customHeight="1"/>
     <row r="83" ht="22.5" customHeight="1"/>
@@ -6104,46 +6723,54 @@
     <row r="1000" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="I30:I31"/>
@@ -6160,208 +6787,197 @@
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.14"/>
-    <col customWidth="1" min="2" max="2" width="64.43"/>
-    <col customWidth="1" min="3" max="3" width="1.57"/>
-    <col customWidth="1" min="4" max="4" width="5.57"/>
-    <col customWidth="1" min="5" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="26" width="10.0"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="6" width="16" customWidth="1"/>
+    <col min="7" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="2:6" ht="30" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="60.0" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="60" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="45.75" customHeight="1">
-      <c r="B8" s="12" t="s">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="45.75" customHeight="1">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
-        <v>22.0</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>22</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="60.0" customHeight="1">
-      <c r="B10" s="18" t="s">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="60" customHeight="1">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" ht="30.75" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" ht="30.75" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -7344,9 +7960,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>